--- a/Daisy-xls/ResearchPages/research-esophageal-cancer.xlsx
+++ b/Daisy-xls/ResearchPages/research-esophageal-cancer.xlsx
@@ -68,7 +68,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +92,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -107,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -130,12 +136,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -164,9 +185,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -176,9 +194,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -193,6 +208,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -500,7 +518,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +526,7 @@
     <col min="1" max="1" width="6.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="52.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -537,15 +555,17 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="18">
+        <v>483372</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13">
+      <c r="E2" s="11"/>
+      <c r="F2" s="12">
         <v>41948</v>
       </c>
       <c r="G2" s="3"/>
@@ -554,8 +574,10 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="18">
+        <v>317771</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -564,7 +586,7 @@
       <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="13">
         <v>41074</v>
       </c>
     </row>
@@ -572,22 +594,24 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="18">
+        <v>87572</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <v>40722</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
+      <c r="B6" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
